--- a/设备表.xlsx
+++ b/设备表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作资料\动力资源系统开发\dc_asset_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ED21D1-A19A-4754-BAB1-0F8838CF35BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C44EEB-0DA3-43DE-BE3D-6B7F6186B9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="296">
   <si>
     <t>局站</t>
   </si>
@@ -946,18 +946,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>LTG03-01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DPF02-380V/250A</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>LTG04-01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>中通服节能技术服务有限公司</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1016,6 +1008,10 @@
   <si>
     <t>UPS主机</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>400A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1153,7 +1149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1360,13 +1356,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,9 +1530,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,11 +1557,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,10 +1859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1862,14 +1903,14 @@
       <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>292</v>
+      <c r="G1" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>290</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>186</v>
@@ -1909,11 +1950,11 @@
       <c r="F2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="47">
         <v>1</v>
       </c>
-      <c r="H2" s="58" t="s">
-        <v>293</v>
+      <c r="H2" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>185</v>
@@ -1934,7 +1975,7 @@
         <v>202312</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -1956,11 +1997,11 @@
       <c r="F3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="47">
         <v>2</v>
       </c>
-      <c r="H3" s="58" t="s">
-        <v>293</v>
+      <c r="H3" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>20</v>
@@ -2000,11 +2041,11 @@
       <c r="F4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="47">
         <v>3</v>
       </c>
-      <c r="H4" s="58" t="s">
-        <v>293</v>
+      <c r="H4" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>23</v>
@@ -2044,11 +2085,11 @@
       <c r="F5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="47">
         <v>4</v>
       </c>
-      <c r="H5" s="58" t="s">
-        <v>293</v>
+      <c r="H5" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>26</v>
@@ -2088,11 +2129,11 @@
       <c r="F6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="47">
         <v>5</v>
       </c>
-      <c r="H6" s="58" t="s">
-        <v>293</v>
+      <c r="H6" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>28</v>
@@ -2132,11 +2173,11 @@
       <c r="F7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="47">
         <v>6</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>293</v>
+      <c r="H7" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>30</v>
@@ -2176,11 +2217,11 @@
       <c r="F8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <v>7</v>
       </c>
-      <c r="H8" s="58" t="s">
-        <v>293</v>
+      <c r="H8" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
@@ -2220,11 +2261,11 @@
       <c r="F9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="47">
         <v>8</v>
       </c>
-      <c r="H9" s="58" t="s">
-        <v>293</v>
+      <c r="H9" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>34</v>
@@ -2264,11 +2305,11 @@
       <c r="F10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="48">
-        <v>9</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>293</v>
+      <c r="G10" s="47">
+        <v>9</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>36</v>
@@ -2308,11 +2349,11 @@
       <c r="F11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="47">
         <v>10</v>
       </c>
-      <c r="H11" s="58" t="s">
-        <v>293</v>
+      <c r="H11" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>40</v>
@@ -2352,11 +2393,11 @@
       <c r="F12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="47">
         <v>11</v>
       </c>
-      <c r="H12" s="58" t="s">
-        <v>294</v>
+      <c r="H12" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>42</v>
@@ -2396,11 +2437,11 @@
       <c r="F13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="47">
         <v>12</v>
       </c>
-      <c r="H13" s="58" t="s">
-        <v>294</v>
+      <c r="H13" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>44</v>
@@ -2440,11 +2481,11 @@
       <c r="F14" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="48">
-        <v>13</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>294</v>
+      <c r="G14" s="47">
+        <v>13</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>46</v>
@@ -2484,11 +2525,11 @@
       <c r="F15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <v>14</v>
       </c>
-      <c r="H15" s="58" t="s">
-        <v>294</v>
+      <c r="H15" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>49</v>
@@ -2528,11 +2569,11 @@
       <c r="F16" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="47">
         <v>15</v>
       </c>
-      <c r="H16" s="58" t="s">
-        <v>294</v>
+      <c r="H16" s="57" t="s">
+        <v>292</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>51</v>
@@ -2572,11 +2613,11 @@
       <c r="F17" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <v>16</v>
       </c>
-      <c r="H17" s="58" t="s">
-        <v>295</v>
+      <c r="H17" s="57" t="s">
+        <v>293</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>54</v>
@@ -2616,11 +2657,11 @@
       <c r="F18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="47">
         <v>17</v>
       </c>
-      <c r="H18" s="58" t="s">
-        <v>296</v>
+      <c r="H18" s="57" t="s">
+        <v>294</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>58</v>
@@ -2660,10 +2701,10 @@
       <c r="F19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <v>18</v>
       </c>
-      <c r="H19" s="54"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="22" t="s">
         <v>61</v>
       </c>
@@ -2702,10 +2743,10 @@
       <c r="F20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="47">
         <v>19</v>
       </c>
-      <c r="H20" s="54"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="22" t="s">
         <v>63</v>
       </c>
@@ -2744,10 +2785,10 @@
       <c r="F21" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="47">
         <v>20</v>
       </c>
-      <c r="H21" s="54"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="22" t="s">
         <v>67</v>
       </c>
@@ -2774,10 +2815,10 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="48">
+      <c r="G22" s="47">
         <v>21</v>
       </c>
-      <c r="H22" s="54"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="24"/>
@@ -2804,10 +2845,10 @@
       <c r="F23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="47">
         <v>22</v>
       </c>
-      <c r="H23" s="54"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="22" t="s">
         <v>71</v>
       </c>
@@ -2842,10 +2883,10 @@
       <c r="F24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="47">
         <v>23</v>
       </c>
-      <c r="H24" s="54"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="22" t="s">
         <v>75</v>
       </c>
@@ -2880,10 +2921,10 @@
       <c r="F25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="47">
         <v>24</v>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="22" t="s">
         <v>77</v>
       </c>
@@ -2918,10 +2959,10 @@
       <c r="F26" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="47">
         <v>25</v>
       </c>
-      <c r="H26" s="54"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="22" t="s">
         <v>79</v>
       </c>
@@ -2956,10 +2997,10 @@
       <c r="F27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="47">
         <v>26</v>
       </c>
-      <c r="H27" s="54"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="22" t="s">
         <v>81</v>
       </c>
@@ -2994,10 +3035,10 @@
       <c r="F28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="47">
         <v>27</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="22" t="s">
         <v>83</v>
       </c>
@@ -3032,10 +3073,10 @@
       <c r="F29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="47">
         <v>28</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="22" t="s">
         <v>84</v>
       </c>
@@ -3070,10 +3111,10 @@
       <c r="F30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="47">
         <v>29</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="22" t="s">
         <v>88</v>
       </c>
@@ -3108,10 +3149,10 @@
       <c r="F31" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="47">
         <v>30</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="22" t="s">
         <v>90</v>
       </c>
@@ -3146,10 +3187,10 @@
       <c r="F32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="47">
         <v>31</v>
       </c>
-      <c r="H32" s="54"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="22" t="s">
         <v>92</v>
       </c>
@@ -3184,10 +3225,10 @@
       <c r="F33" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="47">
         <v>32</v>
       </c>
-      <c r="H33" s="54"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="22" t="s">
         <v>94</v>
       </c>
@@ -3222,10 +3263,10 @@
       <c r="F34" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="47">
         <v>33</v>
       </c>
-      <c r="H34" s="54"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="22" t="s">
         <v>98</v>
       </c>
@@ -3260,10 +3301,10 @@
       <c r="F35" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="47">
         <v>34</v>
       </c>
-      <c r="H35" s="54"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="22" t="s">
         <v>99</v>
       </c>
@@ -3298,10 +3339,10 @@
       <c r="F36" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="47">
         <v>35</v>
       </c>
-      <c r="H36" s="54"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="22" t="s">
         <v>102</v>
       </c>
@@ -3336,10 +3377,10 @@
       <c r="F37" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="47">
         <v>36</v>
       </c>
-      <c r="H37" s="54"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="22" t="s">
         <v>104</v>
       </c>
@@ -3374,10 +3415,10 @@
       <c r="F38" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="47">
         <v>37</v>
       </c>
-      <c r="H38" s="54"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="22" t="s">
         <v>106</v>
       </c>
@@ -3412,10 +3453,10 @@
       <c r="F39" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="47">
         <v>38</v>
       </c>
-      <c r="H39" s="54"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="22" t="s">
         <v>108</v>
       </c>
@@ -3450,10 +3491,10 @@
       <c r="F40" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="47">
         <v>39</v>
       </c>
-      <c r="H40" s="54"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="22" t="s">
         <v>112</v>
       </c>
@@ -3486,10 +3527,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="22"/>
-      <c r="G41" s="48">
+      <c r="G41" s="47">
         <v>40</v>
       </c>
-      <c r="H41" s="54"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="22" t="s">
         <v>113</v>
       </c>
@@ -3524,10 +3565,10 @@
         <v>13</v>
       </c>
       <c r="F42" s="33"/>
-      <c r="G42" s="48">
+      <c r="G42" s="47">
         <v>41</v>
       </c>
-      <c r="H42" s="54"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="22" t="s">
         <v>116</v>
       </c>
@@ -3562,10 +3603,10 @@
         <v>13</v>
       </c>
       <c r="F43" s="33"/>
-      <c r="G43" s="48">
+      <c r="G43" s="47">
         <v>42</v>
       </c>
-      <c r="H43" s="54"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="22" t="s">
         <v>118</v>
       </c>
@@ -3600,10 +3641,10 @@
         <v>13</v>
       </c>
       <c r="F44" s="33"/>
-      <c r="G44" s="48">
+      <c r="G44" s="47">
         <v>43</v>
       </c>
-      <c r="H44" s="54"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="22" t="s">
         <v>119</v>
       </c>
@@ -3638,10 +3679,10 @@
         <v>13</v>
       </c>
       <c r="F45" s="33"/>
-      <c r="G45" s="48">
+      <c r="G45" s="47">
         <v>44</v>
       </c>
-      <c r="H45" s="54"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="22" t="s">
         <v>122</v>
       </c>
@@ -3676,10 +3717,10 @@
         <v>13</v>
       </c>
       <c r="F46" s="33"/>
-      <c r="G46" s="48">
+      <c r="G46" s="47">
         <v>45</v>
       </c>
-      <c r="H46" s="54"/>
+      <c r="H46" s="53"/>
       <c r="I46" s="22" t="s">
         <v>125</v>
       </c>
@@ -3714,10 +3755,10 @@
         <v>13</v>
       </c>
       <c r="F47" s="33"/>
-      <c r="G47" s="48">
+      <c r="G47" s="47">
         <v>46</v>
       </c>
-      <c r="H47" s="54"/>
+      <c r="H47" s="53"/>
       <c r="I47" s="22" t="s">
         <v>126</v>
       </c>
@@ -3752,10 +3793,10 @@
         <v>13</v>
       </c>
       <c r="F48" s="33"/>
-      <c r="G48" s="48">
+      <c r="G48" s="47">
         <v>47</v>
       </c>
-      <c r="H48" s="54"/>
+      <c r="H48" s="53"/>
       <c r="I48" s="22" t="s">
         <v>127</v>
       </c>
@@ -3774,10 +3815,10 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G49" s="48">
+      <c r="G49" s="47">
         <v>48</v>
       </c>
-      <c r="H49" s="55"/>
+      <c r="H49" s="54"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="26"/>
@@ -3786,10 +3827,10 @@
       <c r="N49" s="18"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G50" s="48">
+      <c r="G50" s="47">
         <v>49</v>
       </c>
-      <c r="H50" s="56"/>
+      <c r="H50" s="55"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
@@ -3798,10 +3839,10 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G51" s="48">
+      <c r="G51" s="47">
         <v>50</v>
       </c>
-      <c r="H51" s="56"/>
+      <c r="H51" s="55"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
@@ -3826,10 +3867,10 @@
         <v>13</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="48">
+      <c r="G52" s="47">
         <v>51</v>
       </c>
-      <c r="H52" s="54"/>
+      <c r="H52" s="53"/>
       <c r="I52" s="5" t="s">
         <v>131</v>
       </c>
@@ -3862,10 +3903,10 @@
         <v>13</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="48">
+      <c r="G53" s="47">
         <v>52</v>
       </c>
-      <c r="H53" s="54"/>
+      <c r="H53" s="53"/>
       <c r="I53" s="5" t="s">
         <v>134</v>
       </c>
@@ -3898,10 +3939,10 @@
         <v>13</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="48">
+      <c r="G54" s="47">
         <v>53</v>
       </c>
-      <c r="H54" s="54"/>
+      <c r="H54" s="53"/>
       <c r="I54" s="5" t="s">
         <v>135</v>
       </c>
@@ -3934,10 +3975,10 @@
         <v>13</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="48">
+      <c r="G55" s="47">
         <v>54</v>
       </c>
-      <c r="H55" s="54"/>
+      <c r="H55" s="53"/>
       <c r="I55" s="5" t="s">
         <v>137</v>
       </c>
@@ -3970,10 +4011,10 @@
         <v>13</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="48">
+      <c r="G56" s="47">
         <v>55</v>
       </c>
-      <c r="H56" s="54"/>
+      <c r="H56" s="53"/>
       <c r="I56" s="5" t="s">
         <v>138</v>
       </c>
@@ -4006,10 +4047,10 @@
         <v>13</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="48">
+      <c r="G57" s="47">
         <v>56</v>
       </c>
-      <c r="H57" s="54"/>
+      <c r="H57" s="53"/>
       <c r="I57" s="5" t="s">
         <v>139</v>
       </c>
@@ -4042,10 +4083,10 @@
         <v>13</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="48">
+      <c r="G58" s="47">
         <v>57</v>
       </c>
-      <c r="H58" s="54"/>
+      <c r="H58" s="53"/>
       <c r="I58" s="22" t="s">
         <v>195</v>
       </c>
@@ -4058,20 +4099,20 @@
       <c r="N58" s="4"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G59" s="48">
+      <c r="G59" s="47">
         <v>58</v>
       </c>
-      <c r="H59" s="57"/>
+      <c r="H59" s="56"/>
       <c r="K59" s="12"/>
       <c r="L59" s="18"/>
       <c r="M59" s="19"/>
       <c r="N59" s="33"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G60" s="48">
+      <c r="G60" s="47">
         <v>59</v>
       </c>
-      <c r="H60" s="57"/>
+      <c r="H60" s="56"/>
       <c r="K60" s="13"/>
       <c r="L60" s="4"/>
       <c r="M60" s="20"/>
@@ -4094,10 +4135,10 @@
         <v>13</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="48">
+      <c r="G61" s="47">
         <v>60</v>
       </c>
-      <c r="H61" s="57"/>
+      <c r="H61" s="56"/>
       <c r="I61" s="6" t="s">
         <v>143</v>
       </c>
@@ -4130,10 +4171,10 @@
         <v>13</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="48">
+      <c r="G62" s="47">
         <v>61</v>
       </c>
-      <c r="H62" s="57"/>
+      <c r="H62" s="56"/>
       <c r="I62" s="6" t="s">
         <v>146</v>
       </c>
@@ -4166,10 +4207,10 @@
         <v>13</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="48">
+      <c r="G63" s="47">
         <v>62</v>
       </c>
-      <c r="H63" s="57"/>
+      <c r="H63" s="56"/>
       <c r="I63" s="6" t="s">
         <v>149</v>
       </c>
@@ -4202,10 +4243,10 @@
         <v>13</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="G64" s="48">
+      <c r="G64" s="47">
         <v>63</v>
       </c>
-      <c r="H64" s="57"/>
+      <c r="H64" s="56"/>
       <c r="I64" s="6" t="s">
         <v>150</v>
       </c>
@@ -4238,10 +4279,10 @@
         <v>13</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="48">
+      <c r="G65" s="47">
         <v>64</v>
       </c>
-      <c r="H65" s="57"/>
+      <c r="H65" s="56"/>
       <c r="I65" s="6" t="s">
         <v>151</v>
       </c>
@@ -4274,10 +4315,10 @@
         <v>13</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="G66" s="48">
+      <c r="G66" s="47">
         <v>65</v>
       </c>
-      <c r="H66" s="57"/>
+      <c r="H66" s="56"/>
       <c r="I66" s="6" t="s">
         <v>152</v>
       </c>
@@ -4310,10 +4351,10 @@
         <v>13</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="48">
+      <c r="G67" s="47">
         <v>66</v>
       </c>
-      <c r="H67" s="57"/>
+      <c r="H67" s="56"/>
       <c r="I67" s="6" t="s">
         <v>154</v>
       </c>
@@ -4346,10 +4387,10 @@
         <v>13</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="48">
+      <c r="G68" s="47">
         <v>67</v>
       </c>
-      <c r="H68" s="57"/>
+      <c r="H68" s="56"/>
       <c r="I68" s="6" t="s">
         <v>156</v>
       </c>
@@ -4382,10 +4423,10 @@
         <v>13</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="48">
+      <c r="G69" s="47">
         <v>68</v>
       </c>
-      <c r="H69" s="57"/>
+      <c r="H69" s="56"/>
       <c r="I69" s="6" t="s">
         <v>157</v>
       </c>
@@ -4402,17 +4443,17 @@
       <c r="N69" s="4"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G70" s="48">
+      <c r="G70" s="47">
         <v>69</v>
       </c>
-      <c r="H70" s="57"/>
+      <c r="H70" s="56"/>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G71" s="48">
+      <c r="G71" s="47">
         <v>70</v>
       </c>
-      <c r="H71" s="57"/>
+      <c r="H71" s="56"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -4432,10 +4473,10 @@
         <v>13</v>
       </c>
       <c r="F72" s="7"/>
-      <c r="G72" s="48">
+      <c r="G72" s="47">
         <v>71</v>
       </c>
-      <c r="H72" s="57"/>
+      <c r="H72" s="56"/>
       <c r="I72" s="7" t="s">
         <v>163</v>
       </c>
@@ -4468,10 +4509,10 @@
         <v>13</v>
       </c>
       <c r="F73" s="7"/>
-      <c r="G73" s="48">
+      <c r="G73" s="47">
         <v>72</v>
       </c>
-      <c r="H73" s="57"/>
+      <c r="H73" s="56"/>
       <c r="I73" s="7" t="s">
         <v>165</v>
       </c>
@@ -4504,10 +4545,10 @@
         <v>13</v>
       </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="48">
+      <c r="G74" s="47">
         <v>73</v>
       </c>
-      <c r="H74" s="57"/>
+      <c r="H74" s="56"/>
       <c r="I74" s="7" t="s">
         <v>167</v>
       </c>
@@ -4540,10 +4581,10 @@
         <v>13</v>
       </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="48">
+      <c r="G75" s="47">
         <v>74</v>
       </c>
-      <c r="H75" s="57"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="7" t="s">
         <v>168</v>
       </c>
@@ -4576,10 +4617,10 @@
         <v>13</v>
       </c>
       <c r="F76" s="7"/>
-      <c r="G76" s="48">
+      <c r="G76" s="47">
         <v>75</v>
       </c>
-      <c r="H76" s="57"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="7" t="s">
         <v>169</v>
       </c>
@@ -4612,10 +4653,10 @@
         <v>13</v>
       </c>
       <c r="F77" s="7"/>
-      <c r="G77" s="48">
+      <c r="G77" s="47">
         <v>76</v>
       </c>
-      <c r="H77" s="57"/>
+      <c r="H77" s="56"/>
       <c r="I77" s="7" t="s">
         <v>170</v>
       </c>
@@ -4648,10 +4689,10 @@
         <v>13</v>
       </c>
       <c r="F78" s="7"/>
-      <c r="G78" s="48">
+      <c r="G78" s="47">
         <v>77</v>
       </c>
-      <c r="H78" s="57"/>
+      <c r="H78" s="56"/>
       <c r="I78" s="7" t="s">
         <v>172</v>
       </c>
@@ -4684,10 +4725,10 @@
         <v>13</v>
       </c>
       <c r="F79" s="7"/>
-      <c r="G79" s="48">
+      <c r="G79" s="47">
         <v>78</v>
       </c>
-      <c r="H79" s="57"/>
+      <c r="H79" s="56"/>
       <c r="I79" s="7" t="s">
         <v>174</v>
       </c>
@@ -4704,18 +4745,45 @@
       <c r="N79" s="4"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G80" s="48">
+      <c r="G80" s="55">
         <v>79</v>
       </c>
-      <c r="H80" s="57"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G81" s="48">
+      <c r="H80" s="56"/>
+    </row>
+    <row r="81" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60">
         <v>80</v>
       </c>
-      <c r="H81" s="57"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H81" s="60"/>
+      <c r="I81" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="J81" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="K81" s="62"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+    </row>
+    <row r="82" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>9</v>
       </c>
@@ -4728,24 +4796,27 @@
       <c r="D82" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="48">
+      <c r="E82" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="59"/>
+      <c r="G82" s="60">
         <v>81</v>
       </c>
-      <c r="H82" s="57"/>
-      <c r="I82" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="K82" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="M82" s="46" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H82" s="60"/>
+      <c r="I82" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="J82" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="K82" s="62"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+    </row>
+    <row r="83" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4758,22 +4829,99 @@
       <c r="D83" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="48">
+      <c r="E83" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60">
         <v>82</v>
       </c>
-      <c r="H83" s="57"/>
-      <c r="I83" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="K83" s="47" t="s">
+      <c r="H83" s="60"/>
+      <c r="I83" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="J83" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="K83" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="L83" s="59"/>
+      <c r="M83" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="M83" s="46" t="s">
-        <v>282</v>
-      </c>
+      <c r="N83" s="59"/>
+      <c r="O83" s="59"/>
+    </row>
+    <row r="84" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="59"/>
+      <c r="G84" s="60">
+        <v>83</v>
+      </c>
+      <c r="H84" s="59"/>
+      <c r="I84" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="J84" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="L84" s="59"/>
+      <c r="M84" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="N84" s="59"/>
+      <c r="O84" s="59"/>
+    </row>
+    <row r="85" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60">
+        <v>84</v>
+      </c>
+      <c r="H85" s="59"/>
+      <c r="I85" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="J85" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="K85" s="62"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
@@ -4788,9 +4936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3DD0F-9581-4E4F-BD1A-44803BB28F98}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -4833,9 +4981,9 @@
         <v>200</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="G1" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>220</v>
       </c>
       <c r="H1" s="39" t="s">
@@ -4885,7 +5033,7 @@
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
-      <c r="G2" s="51"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="40" t="s">
         <v>212</v>
       </c>
@@ -4919,7 +5067,7 @@
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="40" t="s">
         <v>212</v>
       </c>
@@ -4953,10 +5101,10 @@
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>288</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>212</v>
@@ -4992,8 +5140,12 @@
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="51"/>
+      <c r="F5" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H5" s="40" t="s">
         <v>212</v>
       </c>
@@ -5028,8 +5180,12 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H6" s="40" t="s">
         <v>212</v>
       </c>
@@ -5064,8 +5220,12 @@
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H7" s="40" t="s">
         <v>212</v>
       </c>
@@ -5100,8 +5260,12 @@
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H8" s="40" t="s">
         <v>212</v>
       </c>
@@ -5136,8 +5300,12 @@
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="51"/>
+      <c r="F9" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H9" s="40" t="s">
         <v>212</v>
       </c>
@@ -5172,8 +5340,12 @@
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H10" s="40" t="s">
         <v>212</v>
       </c>
@@ -5208,8 +5380,12 @@
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>288</v>
+      </c>
       <c r="H11" s="40" t="s">
         <v>212</v>
       </c>
@@ -5245,7 +5421,7 @@
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="51"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -5271,7 +5447,7 @@
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
@@ -5297,7 +5473,7 @@
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="51"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
@@ -5323,7 +5499,7 @@
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="51"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
@@ -5343,7 +5519,7 @@
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
@@ -5365,7 +5541,7 @@
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="52"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="38" t="s">
         <v>219</v>
       </c>
@@ -5391,7 +5567,7 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="52"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
@@ -5411,7 +5587,7 @@
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="52"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -5431,7 +5607,7 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="52"/>
+      <c r="G20" s="51"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
@@ -5451,7 +5627,7 @@
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="52"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -5477,7 +5653,7 @@
         <v>228</v>
       </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="52"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="38" t="s">
         <v>229</v>
       </c>
@@ -5511,7 +5687,7 @@
         <v>228</v>
       </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="52"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="38" t="s">
         <v>229</v>
       </c>
@@ -5545,7 +5721,7 @@
         <v>228</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="52"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="38" t="s">
         <v>229</v>
       </c>
@@ -5577,7 +5753,7 @@
         <v>228</v>
       </c>
       <c r="F25" s="38"/>
-      <c r="G25" s="52"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="38" t="s">
         <v>229</v>
       </c>
@@ -5609,7 +5785,7 @@
         <v>228</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="52"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="38" t="s">
         <v>229</v>
       </c>
@@ -5646,7 +5822,7 @@
         <v>228</v>
       </c>
       <c r="F27" s="38"/>
-      <c r="G27" s="52"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -5666,7 +5842,7 @@
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="52"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -5690,7 +5866,7 @@
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="52"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="38" t="s">
         <v>229</v>
       </c>
@@ -5726,7 +5902,7 @@
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="52"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="38" t="s">
         <v>229</v>
       </c>
@@ -5756,7 +5932,7 @@
       </c>
       <c r="E31" s="43"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="52"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="38" t="s">
         <v>229</v>
       </c>
@@ -5788,7 +5964,7 @@
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="52"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="22"/>
@@ -5812,7 +5988,7 @@
       </c>
       <c r="E33" s="43"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="52"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="38" t="s">
         <v>229</v>
       </c>
@@ -5848,7 +6024,7 @@
       </c>
       <c r="E34" s="43"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="52"/>
+      <c r="G34" s="51"/>
       <c r="H34" s="38" t="s">
         <v>229</v>
       </c>
@@ -5878,7 +6054,7 @@
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="52"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="38" t="s">
         <v>229</v>
       </c>
@@ -5910,7 +6086,7 @@
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="52"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
       <c r="J36" s="22"/>
@@ -5936,7 +6112,7 @@
         <v>228</v>
       </c>
       <c r="F37" s="38"/>
-      <c r="G37" s="52"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="38" t="s">
         <v>229</v>
       </c>
@@ -5974,7 +6150,7 @@
         <v>228</v>
       </c>
       <c r="F38" s="38"/>
-      <c r="G38" s="52"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="38" t="s">
         <v>229</v>
       </c>
@@ -6010,7 +6186,7 @@
         <v>228</v>
       </c>
       <c r="F39" s="38"/>
-      <c r="G39" s="52"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="38" t="s">
         <v>229</v>
       </c>
@@ -6046,7 +6222,7 @@
         <v>255</v>
       </c>
       <c r="F40" s="38"/>
-      <c r="G40" s="52"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -6072,7 +6248,7 @@
         <v>255</v>
       </c>
       <c r="F41" s="38"/>
-      <c r="G41" s="52"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="38" t="s">
         <v>229</v>
       </c>
@@ -6082,17 +6258,19 @@
       <c r="J41" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="L41" s="38"/>
+      <c r="K41" s="43">
+        <v>2</v>
+      </c>
+      <c r="L41" s="43" t="s">
+        <v>295</v>
+      </c>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
       <c r="R41" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
@@ -6108,7 +6286,7 @@
         <v>255</v>
       </c>
       <c r="F42" s="38"/>
-      <c r="G42" s="52"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="38" t="s">
         <v>229</v>
       </c>
@@ -6119,16 +6297,18 @@
         <v>275</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="L42" s="38"/>
+        <v>283</v>
+      </c>
+      <c r="L42" s="43" t="s">
+        <v>295</v>
+      </c>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
@@ -6144,7 +6324,7 @@
         <v>255</v>
       </c>
       <c r="F43" s="38"/>
-      <c r="G43" s="52"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="38" t="s">
         <v>229</v>
       </c>
@@ -6176,7 +6356,7 @@
         <v>255</v>
       </c>
       <c r="F44" s="38"/>
-      <c r="G44" s="52"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="38" t="s">
         <v>229</v>
       </c>
@@ -6208,7 +6388,7 @@
         <v>273</v>
       </c>
       <c r="F45" s="38"/>
-      <c r="G45" s="52"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="38" t="s">
         <v>229</v>
       </c>
@@ -6240,7 +6420,7 @@
         <v>255</v>
       </c>
       <c r="F46" s="38"/>
-      <c r="G46" s="52"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -6266,7 +6446,7 @@
         <v>255</v>
       </c>
       <c r="F47" s="38"/>
-      <c r="G47" s="52"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -6292,7 +6472,7 @@
         <v>255</v>
       </c>
       <c r="F48" s="38"/>
-      <c r="G48" s="52"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -6318,7 +6498,7 @@
         <v>255</v>
       </c>
       <c r="F49" s="38"/>
-      <c r="G49" s="52"/>
+      <c r="G49" s="51"/>
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -6344,7 +6524,7 @@
         <v>255</v>
       </c>
       <c r="F50" s="38"/>
-      <c r="G50" s="52"/>
+      <c r="G50" s="51"/>
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -6370,7 +6550,7 @@
         <v>255</v>
       </c>
       <c r="F51" s="38"/>
-      <c r="G51" s="52"/>
+      <c r="G51" s="51"/>
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>

--- a/设备表.xlsx
+++ b/设备表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作资料\动力资源系统开发\dc_asset_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C44EEB-0DA3-43DE-BE3D-6B7F6186B9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3628AD-96A7-42D7-82D2-DFC1E8CED4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="302">
   <si>
     <t>局站</t>
   </si>
@@ -682,9 +682,6 @@
     <t>B端设备照片</t>
   </si>
   <si>
-    <t>NT4(500A)</t>
-  </si>
-  <si>
     <t>电缆</t>
   </si>
   <si>
@@ -695,13 +692,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>NT3(500A)</t>
-  </si>
-  <si>
     <t>2L</t>
-  </si>
-  <si>
-    <t>RT16Z-3(500A)</t>
   </si>
   <si>
     <t>1L</t>
@@ -1011,6 +1002,42 @@
   </si>
   <si>
     <t>400A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A下B上</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>下游</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A端额定电流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>B端额定电流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>500A</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT16Z-3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>250A</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1382,13 +1409,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,6 +1624,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1861,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J81" sqref="J81:J85"/>
     </sheetView>
@@ -1904,13 +1958,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>186</v>
@@ -1925,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -1954,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>185</v>
@@ -1975,7 +2029,7 @@
         <v>202312</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -2001,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>20</v>
@@ -2045,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>23</v>
@@ -2089,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>26</v>
@@ -2133,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>28</v>
@@ -2177,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>30</v>
@@ -2221,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
@@ -2265,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>34</v>
@@ -2309,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>36</v>
@@ -2321,7 +2375,7 @@
         <v>37</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>38</v>
@@ -2353,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>40</v>
@@ -2365,7 +2419,7 @@
         <v>37</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>38</v>
@@ -2397,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>42</v>
@@ -2409,7 +2463,7 @@
         <v>37</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>38</v>
@@ -2441,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>44</v>
@@ -2453,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>38</v>
@@ -2485,7 +2539,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>46</v>
@@ -2529,7 +2583,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>49</v>
@@ -2573,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>51</v>
@@ -2617,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>54</v>
@@ -2661,7 +2715,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>58</v>
@@ -2670,10 +2724,10 @@
         <v>189</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M18" s="22" t="s">
         <v>59</v>
@@ -2712,10 +2766,10 @@
         <v>189</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M19" s="22" t="s">
         <v>59</v>
@@ -2754,10 +2808,10 @@
         <v>189</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M20" s="22" t="s">
         <v>65</v>
@@ -2799,7 +2853,7 @@
         <v>64</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>65</v>
@@ -4772,7 +4826,7 @@
       </c>
       <c r="H81" s="60"/>
       <c r="I81" s="61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J81" s="64" t="s">
         <v>189</v>
@@ -4805,7 +4859,7 @@
       </c>
       <c r="H82" s="60"/>
       <c r="I82" s="61" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J82" s="64" t="s">
         <v>189</v>
@@ -4838,17 +4892,17 @@
       </c>
       <c r="H83" s="60"/>
       <c r="I83" s="61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J83" s="64" t="s">
         <v>189</v>
       </c>
       <c r="K83" s="63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L83" s="59"/>
       <c r="M83" s="64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N83" s="59"/>
       <c r="O83" s="59"/>
@@ -4875,17 +4929,17 @@
       </c>
       <c r="H84" s="59"/>
       <c r="I84" s="61" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J84" s="64" t="s">
         <v>189</v>
       </c>
       <c r="K84" s="63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L84" s="59"/>
       <c r="M84" s="64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N84" s="59"/>
       <c r="O84" s="59"/>
@@ -4912,7 +4966,7 @@
       </c>
       <c r="H85" s="59"/>
       <c r="I85" s="61" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J85" s="64" t="s">
         <v>189</v>
@@ -4934,11 +4988,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3DD0F-9581-4E4F-BD1A-44803BB28F98}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41:J45"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -4946,25 +5000,27 @@
     <col min="1" max="1" width="43.625" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="37" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.75" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="37"/>
+    <col min="4" max="4" width="13.125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="37" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="37" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1" ht="60.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="36" customFormat="1" ht="60.75" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>196</v>
       </c>
@@ -4974,1594 +5030,1870 @@
       <c r="C1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="40"/>
+        <v>299</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="38"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="N2" s="67"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="40"/>
+        <v>299</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="38"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
-      <c r="R3" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="40" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="40" t="s">
+      <c r="K4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="L4" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="M5" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
+      <c r="M6" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N6" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="40" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="40" t="s">
+      <c r="K7" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
+      <c r="L7" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="40" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="40" t="s">
+      <c r="K8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
+      <c r="L8" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="M9" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N9" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E10" s="40"/>
-      <c r="F10" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10" s="40" t="s">
+      <c r="K10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="L10" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N10" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="M11" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="N11" s="67" t="s">
+        <v>297</v>
+      </c>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
-      <c r="L12" s="38"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="67"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="38"/>
+      <c r="L13" s="40"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="38"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="67"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="40"/>
+        <v>300</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>297</v>
+      </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="38"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+      <c r="N16" s="67"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="38" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
+      <c r="N18" s="67"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="N20" s="67"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
+      <c r="N21" s="67"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="38" t="s">
-        <v>230</v>
+      <c r="D22" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>294</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="K22" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>235</v>
+      </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="42"/>
+      <c r="N22" s="67"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="P22" s="42"/>
       <c r="Q22" s="38"/>
-      <c r="R22" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
-        <v>231</v>
+      <c r="D23" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E23" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="38" t="s">
-        <v>229</v>
+      <c r="F23" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>294</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>235</v>
+      </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="42"/>
+      <c r="N23" s="67"/>
       <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="P23" s="42"/>
       <c r="Q23" s="38"/>
-      <c r="R23" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="38" t="s">
-        <v>232</v>
+      <c r="D24" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="38" t="s">
         <v>229</v>
       </c>
+      <c r="F24" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>285</v>
+      </c>
       <c r="I24" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J24" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="44"/>
       <c r="L24" s="44"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="45"/>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="E25" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="K25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="44"/>
       <c r="L25" s="44"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="38" t="s">
-        <v>234</v>
+      <c r="D26" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="38" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I26" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="38"/>
+      <c r="N26" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="J26" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="N26" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="38" t="s">
-        <v>235</v>
+      <c r="D27" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="38"/>
+        <v>232</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="N27" s="67"/>
       <c r="O27" s="38"/>
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="N28" s="67"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="38" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O29" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="P29" s="38" t="s">
+        <v>225</v>
+      </c>
       <c r="Q29" s="38"/>
-      <c r="R29" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
-      <c r="D30" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="38" t="s">
-        <v>229</v>
-      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J30" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
+      <c r="N30" s="67"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
-      <c r="R30" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="38" t="s">
-        <v>229</v>
+      <c r="D31" s="67"/>
+      <c r="E31" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J31" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="38"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="N31" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>225</v>
+      </c>
       <c r="Q31" s="38"/>
-      <c r="R31" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="38"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
+      <c r="N32" s="67"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="38" t="s">
-        <v>229</v>
+      <c r="D33" s="67"/>
+      <c r="E33" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>294</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J33" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="N33" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>225</v>
+      </c>
       <c r="Q33" s="38"/>
-      <c r="R33" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="38" t="s">
-        <v>229</v>
-      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J34" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="N34" s="67"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
-      <c r="R34" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="38" t="s">
-        <v>229</v>
+      <c r="D35" s="67"/>
+      <c r="E35" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J35" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K35" s="38"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>225</v>
+      </c>
       <c r="Q35" s="38"/>
-      <c r="R35" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="22"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="38"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="N36" s="67"/>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
-      <c r="D37" s="38" t="s">
-        <v>245</v>
+      <c r="D37" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="38" t="s">
-        <v>229</v>
+        <v>242</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>294</v>
       </c>
       <c r="I37" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="J37" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="N37" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
-      <c r="D38" s="38" t="s">
-        <v>243</v>
+      <c r="D38" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="38" t="s">
-        <v>229</v>
+        <v>240</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>294</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J38" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="N38" s="43"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="P38" s="43"/>
       <c r="Q38" s="38"/>
-      <c r="R38" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
-      <c r="D39" s="38" t="s">
-        <v>244</v>
+      <c r="D39" s="67" t="s">
+        <v>292</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="38" t="s">
-        <v>229</v>
+        <v>241</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>294</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="J39" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="38"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="N39" s="43"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="P39" s="43"/>
       <c r="Q39" s="38"/>
-      <c r="R39" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
-      <c r="D40" s="38" t="s">
-        <v>246</v>
+      <c r="D40" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="38"/>
+        <v>243</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
+      <c r="N40" s="67"/>
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="38" t="s">
-        <v>247</v>
+      <c r="D41" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="38" t="s">
-        <v>229</v>
+        <v>244</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="K41" s="43">
+        <v>233</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="43">
         <v>2</v>
       </c>
-      <c r="L41" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
+      <c r="M41" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>292</v>
+      </c>
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
-      <c r="R41" s="38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="38" t="s">
-        <v>249</v>
+      <c r="D42" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="38" t="s">
-        <v>229</v>
+        <v>246</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J42" s="38" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="L42" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
+        <v>272</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="N42" s="43" t="s">
+        <v>292</v>
+      </c>
       <c r="O42" s="38"/>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
-      <c r="R42" s="38" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="38" t="s">
-        <v>248</v>
+      <c r="D43" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="38" t="s">
-        <v>229</v>
+        <v>245</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J43" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="K43" s="38"/>
+        <v>233</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>273</v>
+      </c>
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="67"/>
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
-        <v>250</v>
+      <c r="D44" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="38" t="s">
-        <v>229</v>
+        <v>247</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="K44" s="38"/>
+        <v>233</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
+      <c r="N44" s="67"/>
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="38" t="s">
-        <v>251</v>
+      <c r="D45" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="38" t="s">
-        <v>229</v>
+        <v>248</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>285</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="K45" s="38"/>
+        <v>233</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>275</v>
+      </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
+      <c r="N45" s="67"/>
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="E46" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
+      <c r="N46" s="67"/>
       <c r="O46" s="38"/>
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
-      <c r="D47" s="38" t="s">
-        <v>253</v>
+      <c r="D47" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="38"/>
+        <v>250</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
+      <c r="N47" s="67"/>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
-      <c r="D48" s="38" t="s">
-        <v>254</v>
+      <c r="D48" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="38"/>
+        <v>251</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="38"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
+      <c r="N48" s="67"/>
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
-      <c r="D49" s="38" t="s">
-        <v>256</v>
+      <c r="D49" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F49" s="38"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="38"/>
+        <v>253</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
+      <c r="N49" s="67"/>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="38"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
-      <c r="D50" s="38" t="s">
-        <v>257</v>
+      <c r="D50" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F50" s="38"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="38"/>
+        <v>254</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
+      <c r="N50" s="67"/>
       <c r="O50" s="38"/>
       <c r="P50" s="38"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="38"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
-      <c r="D51" s="38" t="s">
-        <v>258</v>
+      <c r="D51" s="67" t="s">
+        <v>301</v>
       </c>
       <c r="E51" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="38"/>
+      <c r="F51" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="38"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
+      <c r="N51" s="67"/>
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/设备表.xlsx
+++ b/设备表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作资料\动力资源系统开发\dc_asset_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3628AD-96A7-42D7-82D2-DFC1E8CED4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D64C2-3351-4B10-B1ED-F8B6D7303C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="1350" windowWidth="25020" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="304">
   <si>
     <t>局站</t>
   </si>
@@ -652,9 +652,6 @@
     <t>A端空开规格</t>
   </si>
   <si>
-    <t>连接类型（电缆 / 铜排 / 母线）</t>
-  </si>
-  <si>
     <t>电缆型号</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
   </si>
   <si>
     <t>B端设备照片</t>
-  </si>
-  <si>
-    <t>电缆</t>
   </si>
   <si>
     <t>RVVZ-240mm²</t>
@@ -698,9 +692,6 @@
     <t>1L</t>
   </si>
   <si>
-    <t>铜排</t>
-  </si>
-  <si>
     <t>上下游</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -737,10 +728,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>电缆</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>19/1QF（进线1）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -985,22 +972,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>直流头柜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关电源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>交直流配电设备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPS主机</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>400A</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1039,6 +1010,40 @@
   <si>
     <t>250A</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接类型</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电机组，直流系统设备，交、直流配电设备，交流UPS主机，高压配电设备，中央空调主机，机房专用精密空调（列间空调），普通空调，太阳能光伏组件，油机启动电池，-48V直流系统2V阀控铅酸蓄电池，UPS系统阀控式铅酸蓄电池，操作电源2V、6V、12V阀控式铅酸蓄电池。（参考维护规程）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流系统设备</t>
+  </si>
+  <si>
+    <t>交、直流配电设备</t>
+  </si>
+  <si>
+    <t>交流UPS主机</t>
+  </si>
+  <si>
+    <t>UPS系统阀控式铅酸蓄电池</t>
+  </si>
+  <si>
+    <t>机房专用精密空调（列间空调）</t>
+  </si>
+  <si>
+    <t>-48V直流系统2V阀控铅酸蓄电池</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1587,24 +1592,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,6 +1626,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1913,11 +1933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81:J85"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1927,7 +1947,8 @@
     <col min="3" max="3" width="20.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.25" style="73" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.375" style="3" customWidth="1"/>
@@ -1958,13 +1979,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="H1" s="52" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>283</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>186</v>
@@ -1979,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>8</v>
@@ -2007,8 +2028,8 @@
       <c r="G2" s="47">
         <v>1</v>
       </c>
-      <c r="H2" s="57" t="s">
-        <v>288</v>
+      <c r="H2" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>185</v>
@@ -2029,7 +2050,7 @@
         <v>202312</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -2054,8 +2075,8 @@
       <c r="G3" s="47">
         <v>2</v>
       </c>
-      <c r="H3" s="57" t="s">
-        <v>288</v>
+      <c r="H3" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>20</v>
@@ -2098,8 +2119,8 @@
       <c r="G4" s="47">
         <v>3</v>
       </c>
-      <c r="H4" s="57" t="s">
-        <v>288</v>
+      <c r="H4" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>23</v>
@@ -2142,8 +2163,8 @@
       <c r="G5" s="47">
         <v>4</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>288</v>
+      <c r="H5" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>26</v>
@@ -2186,8 +2207,8 @@
       <c r="G6" s="47">
         <v>5</v>
       </c>
-      <c r="H6" s="57" t="s">
-        <v>288</v>
+      <c r="H6" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>28</v>
@@ -2230,8 +2251,8 @@
       <c r="G7" s="47">
         <v>6</v>
       </c>
-      <c r="H7" s="57" t="s">
-        <v>288</v>
+      <c r="H7" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>30</v>
@@ -2274,8 +2295,8 @@
       <c r="G8" s="47">
         <v>7</v>
       </c>
-      <c r="H8" s="57" t="s">
-        <v>288</v>
+      <c r="H8" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
@@ -2318,8 +2339,8 @@
       <c r="G9" s="47">
         <v>8</v>
       </c>
-      <c r="H9" s="57" t="s">
-        <v>288</v>
+      <c r="H9" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>34</v>
@@ -2362,8 +2383,8 @@
       <c r="G10" s="47">
         <v>9</v>
       </c>
-      <c r="H10" s="57" t="s">
-        <v>288</v>
+      <c r="H10" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>36</v>
@@ -2375,7 +2396,7 @@
         <v>37</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>38</v>
@@ -2406,8 +2427,8 @@
       <c r="G11" s="47">
         <v>10</v>
       </c>
-      <c r="H11" s="57" t="s">
-        <v>288</v>
+      <c r="H11" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>40</v>
@@ -2419,7 +2440,7 @@
         <v>37</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M11" s="22" t="s">
         <v>38</v>
@@ -2450,8 +2471,8 @@
       <c r="G12" s="47">
         <v>11</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>289</v>
+      <c r="H12" s="65" t="s">
+        <v>298</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>42</v>
@@ -2463,7 +2484,7 @@
         <v>37</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M12" s="22" t="s">
         <v>38</v>
@@ -2494,8 +2515,8 @@
       <c r="G13" s="47">
         <v>12</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>289</v>
+      <c r="H13" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>44</v>
@@ -2507,7 +2528,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>38</v>
@@ -2538,8 +2559,8 @@
       <c r="G14" s="47">
         <v>13</v>
       </c>
-      <c r="H14" s="57" t="s">
-        <v>289</v>
+      <c r="H14" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>46</v>
@@ -2582,8 +2603,8 @@
       <c r="G15" s="47">
         <v>14</v>
       </c>
-      <c r="H15" s="57" t="s">
-        <v>289</v>
+      <c r="H15" s="65" t="s">
+        <v>298</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>49</v>
@@ -2626,8 +2647,8 @@
       <c r="G16" s="47">
         <v>15</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>289</v>
+      <c r="H16" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>51</v>
@@ -2670,8 +2691,8 @@
       <c r="G17" s="47">
         <v>16</v>
       </c>
-      <c r="H17" s="57" t="s">
-        <v>290</v>
+      <c r="H17" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>54</v>
@@ -2714,8 +2735,8 @@
       <c r="G18" s="47">
         <v>17</v>
       </c>
-      <c r="H18" s="57" t="s">
-        <v>291</v>
+      <c r="H18" s="65" t="s">
+        <v>300</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>58</v>
@@ -2724,10 +2745,10 @@
         <v>189</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M18" s="22" t="s">
         <v>59</v>
@@ -2758,7 +2779,9 @@
       <c r="G19" s="47">
         <v>18</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="65" t="s">
+        <v>300</v>
+      </c>
       <c r="I19" s="22" t="s">
         <v>61</v>
       </c>
@@ -2766,10 +2789,10 @@
         <v>189</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M19" s="22" t="s">
         <v>59</v>
@@ -2800,7 +2823,9 @@
       <c r="G20" s="47">
         <v>19</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I20" s="22" t="s">
         <v>63</v>
       </c>
@@ -2808,10 +2833,10 @@
         <v>189</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M20" s="22" t="s">
         <v>65</v>
@@ -2842,7 +2867,9 @@
       <c r="G21" s="47">
         <v>20</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I21" s="22" t="s">
         <v>67</v>
       </c>
@@ -2853,7 +2880,7 @@
         <v>64</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M21" s="22" t="s">
         <v>65</v>
@@ -2872,7 +2899,7 @@
       <c r="G22" s="47">
         <v>21</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
       <c r="K22" s="24"/>
@@ -2902,7 +2929,9 @@
       <c r="G23" s="47">
         <v>22</v>
       </c>
-      <c r="H23" s="53"/>
+      <c r="H23" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I23" s="22" t="s">
         <v>71</v>
       </c>
@@ -2940,7 +2969,9 @@
       <c r="G24" s="47">
         <v>23</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I24" s="22" t="s">
         <v>75</v>
       </c>
@@ -2978,7 +3009,9 @@
       <c r="G25" s="47">
         <v>24</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I25" s="22" t="s">
         <v>77</v>
       </c>
@@ -3016,7 +3049,9 @@
       <c r="G26" s="47">
         <v>25</v>
       </c>
-      <c r="H26" s="53"/>
+      <c r="H26" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I26" s="22" t="s">
         <v>79</v>
       </c>
@@ -3054,7 +3089,9 @@
       <c r="G27" s="47">
         <v>26</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I27" s="22" t="s">
         <v>81</v>
       </c>
@@ -3092,7 +3129,9 @@
       <c r="G28" s="47">
         <v>27</v>
       </c>
-      <c r="H28" s="53"/>
+      <c r="H28" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I28" s="22" t="s">
         <v>83</v>
       </c>
@@ -3130,7 +3169,9 @@
       <c r="G29" s="47">
         <v>28</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="65" t="s">
+        <v>303</v>
+      </c>
       <c r="I29" s="22" t="s">
         <v>84</v>
       </c>
@@ -3168,7 +3209,9 @@
       <c r="G30" s="47">
         <v>29</v>
       </c>
-      <c r="H30" s="53"/>
+      <c r="H30" s="66" t="s">
+        <v>303</v>
+      </c>
       <c r="I30" s="22" t="s">
         <v>88</v>
       </c>
@@ -3206,7 +3249,9 @@
       <c r="G31" s="47">
         <v>30</v>
       </c>
-      <c r="H31" s="53"/>
+      <c r="H31" s="65" t="s">
+        <v>303</v>
+      </c>
       <c r="I31" s="22" t="s">
         <v>90</v>
       </c>
@@ -3244,7 +3289,9 @@
       <c r="G32" s="47">
         <v>31</v>
       </c>
-      <c r="H32" s="53"/>
+      <c r="H32" s="66" t="s">
+        <v>303</v>
+      </c>
       <c r="I32" s="22" t="s">
         <v>92</v>
       </c>
@@ -3282,7 +3329,9 @@
       <c r="G33" s="47">
         <v>32</v>
       </c>
-      <c r="H33" s="53"/>
+      <c r="H33" s="65" t="s">
+        <v>303</v>
+      </c>
       <c r="I33" s="22" t="s">
         <v>94</v>
       </c>
@@ -3320,7 +3369,9 @@
       <c r="G34" s="47">
         <v>33</v>
       </c>
-      <c r="H34" s="53"/>
+      <c r="H34" s="66" t="s">
+        <v>303</v>
+      </c>
       <c r="I34" s="22" t="s">
         <v>98</v>
       </c>
@@ -3358,7 +3409,9 @@
       <c r="G35" s="47">
         <v>34</v>
       </c>
-      <c r="H35" s="53"/>
+      <c r="H35" s="66" t="s">
+        <v>301</v>
+      </c>
       <c r="I35" s="22" t="s">
         <v>99</v>
       </c>
@@ -3396,7 +3449,9 @@
       <c r="G36" s="47">
         <v>35</v>
       </c>
-      <c r="H36" s="53"/>
+      <c r="H36" s="66" t="s">
+        <v>301</v>
+      </c>
       <c r="I36" s="22" t="s">
         <v>102</v>
       </c>
@@ -3434,7 +3489,9 @@
       <c r="G37" s="47">
         <v>36</v>
       </c>
-      <c r="H37" s="53"/>
+      <c r="H37" s="66" t="s">
+        <v>301</v>
+      </c>
       <c r="I37" s="22" t="s">
         <v>104</v>
       </c>
@@ -3472,7 +3529,9 @@
       <c r="G38" s="47">
         <v>37</v>
       </c>
-      <c r="H38" s="53"/>
+      <c r="H38" s="66" t="s">
+        <v>301</v>
+      </c>
       <c r="I38" s="22" t="s">
         <v>106</v>
       </c>
@@ -3510,7 +3569,9 @@
       <c r="G39" s="47">
         <v>38</v>
       </c>
-      <c r="H39" s="53"/>
+      <c r="H39" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I39" s="22" t="s">
         <v>108</v>
       </c>
@@ -3548,7 +3609,9 @@
       <c r="G40" s="47">
         <v>39</v>
       </c>
-      <c r="H40" s="53"/>
+      <c r="H40" s="66" t="s">
+        <v>299</v>
+      </c>
       <c r="I40" s="22" t="s">
         <v>112</v>
       </c>
@@ -3584,7 +3647,9 @@
       <c r="G41" s="47">
         <v>40</v>
       </c>
-      <c r="H41" s="53"/>
+      <c r="H41" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I41" s="22" t="s">
         <v>113</v>
       </c>
@@ -3622,7 +3687,9 @@
       <c r="G42" s="47">
         <v>41</v>
       </c>
-      <c r="H42" s="53"/>
+      <c r="H42" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I42" s="22" t="s">
         <v>116</v>
       </c>
@@ -3660,7 +3727,9 @@
       <c r="G43" s="47">
         <v>42</v>
       </c>
-      <c r="H43" s="53"/>
+      <c r="H43" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I43" s="22" t="s">
         <v>118</v>
       </c>
@@ -3698,7 +3767,9 @@
       <c r="G44" s="47">
         <v>43</v>
       </c>
-      <c r="H44" s="53"/>
+      <c r="H44" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I44" s="22" t="s">
         <v>119</v>
       </c>
@@ -3736,7 +3807,9 @@
       <c r="G45" s="47">
         <v>44</v>
       </c>
-      <c r="H45" s="53"/>
+      <c r="H45" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I45" s="22" t="s">
         <v>122</v>
       </c>
@@ -3774,7 +3847,9 @@
       <c r="G46" s="47">
         <v>45</v>
       </c>
-      <c r="H46" s="53"/>
+      <c r="H46" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I46" s="22" t="s">
         <v>125</v>
       </c>
@@ -3812,7 +3887,9 @@
       <c r="G47" s="47">
         <v>46</v>
       </c>
-      <c r="H47" s="53"/>
+      <c r="H47" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I47" s="22" t="s">
         <v>126</v>
       </c>
@@ -3850,7 +3927,9 @@
       <c r="G48" s="47">
         <v>47</v>
       </c>
-      <c r="H48" s="53"/>
+      <c r="H48" s="66" t="s">
+        <v>302</v>
+      </c>
       <c r="I48" s="22" t="s">
         <v>127</v>
       </c>
@@ -3872,7 +3951,7 @@
       <c r="G49" s="47">
         <v>48</v>
       </c>
-      <c r="H49" s="54"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="26"/>
@@ -3884,7 +3963,7 @@
       <c r="G50" s="47">
         <v>49</v>
       </c>
-      <c r="H50" s="55"/>
+      <c r="H50" s="68"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
@@ -3896,7 +3975,7 @@
       <c r="G51" s="47">
         <v>50</v>
       </c>
-      <c r="H51" s="55"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
@@ -3924,7 +4003,7 @@
       <c r="G52" s="47">
         <v>51</v>
       </c>
-      <c r="H52" s="53"/>
+      <c r="H52" s="66"/>
       <c r="I52" s="5" t="s">
         <v>131</v>
       </c>
@@ -3960,7 +4039,7 @@
       <c r="G53" s="47">
         <v>52</v>
       </c>
-      <c r="H53" s="53"/>
+      <c r="H53" s="66"/>
       <c r="I53" s="5" t="s">
         <v>134</v>
       </c>
@@ -3996,7 +4075,7 @@
       <c r="G54" s="47">
         <v>53</v>
       </c>
-      <c r="H54" s="53"/>
+      <c r="H54" s="66"/>
       <c r="I54" s="5" t="s">
         <v>135</v>
       </c>
@@ -4032,7 +4111,7 @@
       <c r="G55" s="47">
         <v>54</v>
       </c>
-      <c r="H55" s="53"/>
+      <c r="H55" s="66"/>
       <c r="I55" s="5" t="s">
         <v>137</v>
       </c>
@@ -4068,7 +4147,7 @@
       <c r="G56" s="47">
         <v>55</v>
       </c>
-      <c r="H56" s="53"/>
+      <c r="H56" s="66"/>
       <c r="I56" s="5" t="s">
         <v>138</v>
       </c>
@@ -4104,7 +4183,7 @@
       <c r="G57" s="47">
         <v>56</v>
       </c>
-      <c r="H57" s="53"/>
+      <c r="H57" s="66"/>
       <c r="I57" s="5" t="s">
         <v>139</v>
       </c>
@@ -4140,7 +4219,7 @@
       <c r="G58" s="47">
         <v>57</v>
       </c>
-      <c r="H58" s="53"/>
+      <c r="H58" s="66"/>
       <c r="I58" s="22" t="s">
         <v>195</v>
       </c>
@@ -4156,7 +4235,9 @@
       <c r="G59" s="47">
         <v>58</v>
       </c>
-      <c r="H59" s="56"/>
+      <c r="H59" s="69" t="s">
+        <v>298</v>
+      </c>
       <c r="K59" s="12"/>
       <c r="L59" s="18"/>
       <c r="M59" s="19"/>
@@ -4166,7 +4247,7 @@
       <c r="G60" s="47">
         <v>59</v>
       </c>
-      <c r="H60" s="56"/>
+      <c r="H60" s="69"/>
       <c r="K60" s="13"/>
       <c r="L60" s="4"/>
       <c r="M60" s="20"/>
@@ -4192,7 +4273,7 @@
       <c r="G61" s="47">
         <v>60</v>
       </c>
-      <c r="H61" s="56"/>
+      <c r="H61" s="69"/>
       <c r="I61" s="6" t="s">
         <v>143</v>
       </c>
@@ -4228,7 +4309,7 @@
       <c r="G62" s="47">
         <v>61</v>
       </c>
-      <c r="H62" s="56"/>
+      <c r="H62" s="69"/>
       <c r="I62" s="6" t="s">
         <v>146</v>
       </c>
@@ -4264,7 +4345,7 @@
       <c r="G63" s="47">
         <v>62</v>
       </c>
-      <c r="H63" s="56"/>
+      <c r="H63" s="69"/>
       <c r="I63" s="6" t="s">
         <v>149</v>
       </c>
@@ -4300,7 +4381,7 @@
       <c r="G64" s="47">
         <v>63</v>
       </c>
-      <c r="H64" s="56"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="6" t="s">
         <v>150</v>
       </c>
@@ -4336,7 +4417,7 @@
       <c r="G65" s="47">
         <v>64</v>
       </c>
-      <c r="H65" s="56"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="6" t="s">
         <v>151</v>
       </c>
@@ -4372,7 +4453,7 @@
       <c r="G66" s="47">
         <v>65</v>
       </c>
-      <c r="H66" s="56"/>
+      <c r="H66" s="69"/>
       <c r="I66" s="6" t="s">
         <v>152</v>
       </c>
@@ -4408,7 +4489,7 @@
       <c r="G67" s="47">
         <v>66</v>
       </c>
-      <c r="H67" s="56"/>
+      <c r="H67" s="69"/>
       <c r="I67" s="6" t="s">
         <v>154</v>
       </c>
@@ -4444,7 +4525,7 @@
       <c r="G68" s="47">
         <v>67</v>
       </c>
-      <c r="H68" s="56"/>
+      <c r="H68" s="69"/>
       <c r="I68" s="6" t="s">
         <v>156</v>
       </c>
@@ -4480,7 +4561,7 @@
       <c r="G69" s="47">
         <v>68</v>
       </c>
-      <c r="H69" s="56"/>
+      <c r="H69" s="69"/>
       <c r="I69" s="6" t="s">
         <v>157</v>
       </c>
@@ -4500,14 +4581,14 @@
       <c r="G70" s="47">
         <v>69</v>
       </c>
-      <c r="H70" s="56"/>
+      <c r="H70" s="69"/>
       <c r="N70" s="4"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G71" s="47">
         <v>70</v>
       </c>
-      <c r="H71" s="56"/>
+      <c r="H71" s="69"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -4530,7 +4611,7 @@
       <c r="G72" s="47">
         <v>71</v>
       </c>
-      <c r="H72" s="56"/>
+      <c r="H72" s="69"/>
       <c r="I72" s="7" t="s">
         <v>163</v>
       </c>
@@ -4566,7 +4647,7 @@
       <c r="G73" s="47">
         <v>72</v>
       </c>
-      <c r="H73" s="56"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="7" t="s">
         <v>165</v>
       </c>
@@ -4602,7 +4683,7 @@
       <c r="G74" s="47">
         <v>73</v>
       </c>
-      <c r="H74" s="56"/>
+      <c r="H74" s="69"/>
       <c r="I74" s="7" t="s">
         <v>167</v>
       </c>
@@ -4638,7 +4719,7 @@
       <c r="G75" s="47">
         <v>74</v>
       </c>
-      <c r="H75" s="56"/>
+      <c r="H75" s="69"/>
       <c r="I75" s="7" t="s">
         <v>168</v>
       </c>
@@ -4674,7 +4755,7 @@
       <c r="G76" s="47">
         <v>75</v>
       </c>
-      <c r="H76" s="56"/>
+      <c r="H76" s="69"/>
       <c r="I76" s="7" t="s">
         <v>169</v>
       </c>
@@ -4710,7 +4791,7 @@
       <c r="G77" s="47">
         <v>76</v>
       </c>
-      <c r="H77" s="56"/>
+      <c r="H77" s="69"/>
       <c r="I77" s="7" t="s">
         <v>170</v>
       </c>
@@ -4746,7 +4827,7 @@
       <c r="G78" s="47">
         <v>77</v>
       </c>
-      <c r="H78" s="56"/>
+      <c r="H78" s="69"/>
       <c r="I78" s="7" t="s">
         <v>172</v>
       </c>
@@ -4782,7 +4863,7 @@
       <c r="G79" s="47">
         <v>78</v>
       </c>
-      <c r="H79" s="56"/>
+      <c r="H79" s="69"/>
       <c r="I79" s="7" t="s">
         <v>174</v>
       </c>
@@ -4799,10 +4880,10 @@
       <c r="N79" s="4"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G80" s="55">
+      <c r="G80" s="52">
         <v>79</v>
       </c>
-      <c r="H80" s="56"/>
+      <c r="H80" s="69"/>
     </row>
     <row r="81" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
@@ -4817,25 +4898,25 @@
       <c r="D81" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E81" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60">
+      <c r="E81" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="54"/>
+      <c r="G81" s="55">
         <v>80</v>
       </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="J81" s="64" t="s">
+      <c r="H81" s="70"/>
+      <c r="I81" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="J81" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="K81" s="62"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
     </row>
     <row r="82" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
@@ -4850,25 +4931,25 @@
       <c r="D82" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E82" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="59"/>
-      <c r="G82" s="60">
+      <c r="E82" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="54"/>
+      <c r="G82" s="55">
         <v>81</v>
       </c>
-      <c r="H82" s="60"/>
-      <c r="I82" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="J82" s="64" t="s">
+      <c r="H82" s="70"/>
+      <c r="I82" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="J82" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="K82" s="62"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
     </row>
     <row r="83" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
@@ -4883,29 +4964,29 @@
       <c r="D83" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E83" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60">
+      <c r="E83" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="54"/>
+      <c r="G83" s="55">
         <v>82</v>
       </c>
-      <c r="H83" s="60"/>
-      <c r="I83" s="61" t="s">
+      <c r="H83" s="70"/>
+      <c r="I83" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="J83" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="K83" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="L83" s="54"/>
+      <c r="M83" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="J83" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="K83" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="L83" s="59"/>
-      <c r="M83" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="N83" s="59"/>
-      <c r="O83" s="59"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
     </row>
     <row r="84" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
@@ -4920,29 +5001,29 @@
       <c r="D84" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E84" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="59"/>
-      <c r="G84" s="60">
+      <c r="E84" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="54"/>
+      <c r="G84" s="55">
         <v>83</v>
       </c>
-      <c r="H84" s="59"/>
-      <c r="I84" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="J84" s="64" t="s">
+      <c r="H84" s="71"/>
+      <c r="I84" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="J84" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="K84" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="L84" s="59"/>
-      <c r="M84" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="N84" s="59"/>
-      <c r="O84" s="59"/>
+      <c r="K84" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="L84" s="54"/>
+      <c r="M84" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
     </row>
     <row r="85" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
@@ -4957,31 +5038,41 @@
       <c r="D85" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E85" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60">
+      <c r="E85" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55">
         <v>84</v>
       </c>
-      <c r="H85" s="59"/>
-      <c r="I85" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="J85" s="64" t="s">
+      <c r="H85" s="71"/>
+      <c r="I85" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="J85" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="K85" s="62"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="59"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+    </row>
+    <row r="88" spans="1:15" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="H88" s="72" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
     <sortCondition ref="F2:F21"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请选择" sqref="H1:H1048576" xr:uid="{D1218B6F-3283-4287-885D-7E0BFE34A85A}">
+      <formula1>"发电机组,直流系统设备,交、直流配电设备,交流UPS主机,高压配电设备,中央空调主机,机房专用精密空调（列间空调）,普通空调,太阳能光伏组件,油机启动电池,-48V直流系统2V阀控铅酸蓄电池,UPS系统阀控式铅酸蓄电池,操作电源2V、6V、12V阀控式铅酸蓄电池"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4990,9 +5081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3DD0F-9581-4E4F-BD1A-44803BB28F98}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -5030,8 +5121,8 @@
       <c r="C1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>295</v>
+      <c r="D1" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>199</v>
@@ -5040,43 +5131,43 @@
         <v>200</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>209</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>210</v>
       </c>
       <c r="T1" s="39" t="s">
         <v>8</v>
@@ -5087,37 +5178,37 @@
         <v>46</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="50"/>
       <c r="I2" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>94</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="38"/>
-      <c r="N2" s="67"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="38"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -5125,37 +5216,37 @@
         <v>46</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="50"/>
       <c r="I3" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>98</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="67"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
       <c r="T3" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -5163,39 +5254,39 @@
         <v>46</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K4" s="40" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N4" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
@@ -5209,39 +5300,39 @@
         <v>46</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
@@ -5255,39 +5346,39 @@
         <v>46</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K6" s="40" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N6" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
@@ -5301,39 +5392,39 @@
         <v>46</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N7" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O7" s="38"/>
       <c r="P7" s="38"/>
@@ -5347,39 +5438,39 @@
         <v>46</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N8" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
@@ -5393,39 +5484,39 @@
         <v>46</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N9" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
@@ -5439,39 +5530,39 @@
         <v>46</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N10" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
@@ -5485,39 +5576,39 @@
         <v>46</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="N11" s="67" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>289</v>
       </c>
       <c r="O11" s="38"/>
       <c r="P11" s="38"/>
@@ -5531,13 +5622,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
@@ -5548,7 +5639,7 @@
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="67"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -5561,13 +5652,13 @@
         <v>46</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -5578,7 +5669,7 @@
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="67"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
@@ -5591,13 +5682,13 @@
         <v>46</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -5608,7 +5699,7 @@
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="67"/>
+      <c r="N14" s="62"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -5621,13 +5712,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>289</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -5638,7 +5729,7 @@
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="67"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -5650,7 +5741,7 @@
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -5660,7 +5751,7 @@
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="67"/>
+      <c r="N16" s="62"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
@@ -5674,13 +5765,13 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="51"/>
       <c r="I17" s="38" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38" t="s">
@@ -5688,7 +5779,7 @@
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="67"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="38"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -5702,7 +5793,7 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="67"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -5712,7 +5803,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="67"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
@@ -5724,7 +5815,7 @@
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="67"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -5734,7 +5825,7 @@
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="67"/>
+      <c r="N19" s="62"/>
       <c r="O19" s="38"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
@@ -5746,7 +5837,7 @@
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -5756,7 +5847,7 @@
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="67"/>
+      <c r="N20" s="62"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -5768,7 +5859,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="67"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -5778,7 +5869,7 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="67"/>
+      <c r="N21" s="62"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -5792,40 +5883,40 @@
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="67" t="s">
-        <v>292</v>
+      <c r="D22" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="67"/>
+      <c r="N22" s="62"/>
       <c r="O22" s="38"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
@@ -5834,40 +5925,40 @@
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="67" t="s">
-        <v>292</v>
+      <c r="D23" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="67"/>
+      <c r="N23" s="62"/>
       <c r="O23" s="38"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
@@ -5876,33 +5967,33 @@
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="67" t="s">
-        <v>292</v>
+      <c r="D24" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E24" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J24" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>233</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>58</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
-      <c r="N24" s="68"/>
+      <c r="N24" s="63"/>
       <c r="O24" s="43"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="38"/>
@@ -5916,33 +6007,33 @@
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="67" t="s">
-        <v>292</v>
+      <c r="D25" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>61</v>
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="68"/>
+      <c r="N25" s="63"/>
       <c r="O25" s="43"/>
       <c r="P25" s="43"/>
       <c r="Q25" s="38"/>
@@ -5956,45 +6047,45 @@
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="67" t="s">
-        <v>292</v>
+      <c r="D26" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="38"/>
-      <c r="N26" s="67" t="s">
-        <v>292</v>
+      <c r="N26" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P26" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
       <c r="T26" s="38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
@@ -6003,14 +6094,14 @@
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="67" t="s">
-        <v>292</v>
+      <c r="D27" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="51"/>
@@ -6019,7 +6110,7 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="67"/>
+      <c r="N27" s="62"/>
       <c r="O27" s="38"/>
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
@@ -6031,7 +6122,7 @@
       <c r="A28" s="22"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="67"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -6041,7 +6132,7 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="67"/>
+      <c r="N28" s="62"/>
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
@@ -6055,42 +6146,42 @@
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="67"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="43" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>63</v>
       </c>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="67" t="s">
-        <v>292</v>
+      <c r="N29" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P29" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
@@ -6099,30 +6190,30 @@
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
-      <c r="D30" s="67"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="43" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F30" s="43"/>
       <c r="G30" s="38"/>
       <c r="H30" s="51"/>
       <c r="I30" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="67"/>
+      <c r="N30" s="62"/>
       <c r="O30" s="38"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
@@ -6131,49 +6222,49 @@
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="67"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>67</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="67" t="s">
-        <v>292</v>
+      <c r="N31" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P31" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="67"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
       <c r="G32" s="38"/>
@@ -6183,7 +6274,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="67"/>
+      <c r="N32" s="62"/>
       <c r="O32" s="38"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
@@ -6197,42 +6288,42 @@
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="67"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="43" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>63</v>
       </c>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="67" t="s">
-        <v>292</v>
+      <c r="N33" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P33" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
@@ -6241,30 +6332,30 @@
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="67"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="43" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="38"/>
       <c r="H34" s="51"/>
       <c r="I34" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J34" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="67"/>
+      <c r="N34" s="62"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
@@ -6273,49 +6364,49 @@
       </c>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="67"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J35" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>67</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="67" t="s">
-        <v>292</v>
+      <c r="N35" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="22"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="67"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
       <c r="G36" s="38"/>
@@ -6325,7 +6416,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="67"/>
+      <c r="N36" s="62"/>
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
@@ -6339,46 +6430,46 @@
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
-      <c r="D37" s="67" t="s">
-        <v>292</v>
+      <c r="D37" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H37" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>63</v>
       </c>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
-      <c r="N37" s="67" t="s">
-        <v>292</v>
+      <c r="N37" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P37" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
       <c r="T37" s="38" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
@@ -6387,42 +6478,42 @@
       </c>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
-      <c r="D38" s="67" t="s">
-        <v>292</v>
+      <c r="D38" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J38" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K38" s="22" t="s">
         <v>58</v>
       </c>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="67"/>
+      <c r="N38" s="62"/>
       <c r="O38" s="43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P38" s="43"/>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
       <c r="T38" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
@@ -6431,42 +6522,42 @@
       </c>
       <c r="B39" s="38"/>
       <c r="C39" s="38"/>
-      <c r="D39" s="67" t="s">
-        <v>292</v>
+      <c r="D39" s="62" t="s">
+        <v>284</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F39" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J39" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K39" s="22" t="s">
         <v>61</v>
       </c>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="67"/>
+      <c r="N39" s="62"/>
       <c r="O39" s="43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P39" s="43"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
@@ -6475,14 +6566,14 @@
       </c>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
-      <c r="D40" s="67" t="s">
-        <v>301</v>
+      <c r="D40" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="51"/>
@@ -6491,7 +6582,7 @@
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
-      <c r="N40" s="67"/>
+      <c r="N40" s="62"/>
       <c r="O40" s="38"/>
       <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
@@ -6505,38 +6596,38 @@
       </c>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="67" t="s">
-        <v>301</v>
+      <c r="D41" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F41" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I41" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J41" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L41" s="43">
         <v>2</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="N41" s="43" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O41" s="38"/>
       <c r="P41" s="38"/>
@@ -6544,7 +6635,7 @@
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
       <c r="T41" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
@@ -6553,38 +6644,38 @@
       </c>
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="67" t="s">
-        <v>301</v>
+      <c r="D42" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G42" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M42" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="H42" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="J42" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="K42" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="L42" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="M42" s="43" t="s">
-        <v>292</v>
-      </c>
       <c r="N42" s="43" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="O42" s="38"/>
       <c r="P42" s="38"/>
@@ -6592,7 +6683,7 @@
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
       <c r="T42" s="38" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
@@ -6601,33 +6692,33 @@
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="67" t="s">
-        <v>301</v>
+      <c r="D43" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F43" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I43" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J43" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L43" s="38"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="67"/>
+      <c r="N43" s="62"/>
       <c r="O43" s="38"/>
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
@@ -6641,33 +6732,33 @@
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
-      <c r="D44" s="67" t="s">
-        <v>301</v>
+      <c r="D44" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I44" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K44" s="38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
-      <c r="N44" s="67"/>
+      <c r="N44" s="62"/>
       <c r="O44" s="38"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
@@ -6681,33 +6772,33 @@
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="67" t="s">
-        <v>301</v>
+      <c r="D45" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I45" s="38" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
-      <c r="N45" s="67"/>
+      <c r="N45" s="62"/>
       <c r="O45" s="38"/>
       <c r="P45" s="38"/>
       <c r="Q45" s="38"/>
@@ -6721,14 +6812,14 @@
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="67" t="s">
-        <v>301</v>
+      <c r="D46" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="51"/>
@@ -6737,7 +6828,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
-      <c r="N46" s="67"/>
+      <c r="N46" s="62"/>
       <c r="O46" s="38"/>
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
@@ -6751,14 +6842,14 @@
       </c>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
-      <c r="D47" s="67" t="s">
-        <v>301</v>
+      <c r="D47" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G47" s="38"/>
       <c r="H47" s="51"/>
@@ -6767,7 +6858,7 @@
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
-      <c r="N47" s="67"/>
+      <c r="N47" s="62"/>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
@@ -6781,14 +6872,14 @@
       </c>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
-      <c r="D48" s="67" t="s">
-        <v>301</v>
+      <c r="D48" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F48" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G48" s="38"/>
       <c r="H48" s="51"/>
@@ -6797,7 +6888,7 @@
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
-      <c r="N48" s="67"/>
+      <c r="N48" s="62"/>
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
       <c r="Q48" s="38"/>
@@ -6811,14 +6902,14 @@
       </c>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
-      <c r="D49" s="67" t="s">
-        <v>301</v>
+      <c r="D49" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G49" s="38"/>
       <c r="H49" s="51"/>
@@ -6827,7 +6918,7 @@
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="67"/>
+      <c r="N49" s="62"/>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="38"/>
@@ -6841,14 +6932,14 @@
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
-      <c r="D50" s="67" t="s">
-        <v>301</v>
+      <c r="D50" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G50" s="38"/>
       <c r="H50" s="51"/>
@@ -6857,7 +6948,7 @@
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
-      <c r="N50" s="67"/>
+      <c r="N50" s="62"/>
       <c r="O50" s="38"/>
       <c r="P50" s="38"/>
       <c r="Q50" s="38"/>
@@ -6871,14 +6962,14 @@
       </c>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
-      <c r="D51" s="67" t="s">
-        <v>301</v>
+      <c r="D51" s="62" t="s">
+        <v>293</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G51" s="38"/>
       <c r="H51" s="51"/>
@@ -6887,7 +6978,7 @@
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
-      <c r="N51" s="67"/>
+      <c r="N51" s="62"/>
       <c r="O51" s="38"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>

--- a/设备表.xlsx
+++ b/设备表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作资料\动力资源系统开发\dc_asset_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D64C2-3351-4B10-B1ED-F8B6D7303C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D4AC3-664E-45FA-8DDF-48C8D9011A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1350" windowWidth="25020" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="306">
   <si>
     <t>局站</t>
   </si>
@@ -1012,10 +1012,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>连接类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>直流</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1024,26 +1020,37 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>直流系统设备</t>
+  </si>
+  <si>
+    <t>交、直流配电设备</t>
+  </si>
+  <si>
+    <t>交流UPS主机</t>
+  </si>
+  <si>
+    <t>UPS系统阀控式铅酸蓄电池</t>
+  </si>
+  <si>
+    <t>机房专用精密空调（列间空调）</t>
+  </si>
+  <si>
+    <t>-48V直流系统2V阀控铅酸蓄电池</t>
+  </si>
+  <si>
+    <t>局站</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>递铺</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接类型（交流/直流）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>发电机组，直流系统设备，交、直流配电设备，交流UPS主机，高压配电设备，中央空调主机，机房专用精密空调（列间空调），普通空调，太阳能光伏组件，油机启动电池，-48V直流系统2V阀控铅酸蓄电池，UPS系统阀控式铅酸蓄电池，操作电源2V、6V、12V阀控式铅酸蓄电池。（参考维护规程）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>直流系统设备</t>
-  </si>
-  <si>
-    <t>交、直流配电设备</t>
-  </si>
-  <si>
-    <t>交流UPS主机</t>
-  </si>
-  <si>
-    <t>UPS系统阀控式铅酸蓄电池</t>
-  </si>
-  <si>
-    <t>机房专用精密空调（列间空调）</t>
-  </si>
-  <si>
-    <t>-48V直流系统2V阀控铅酸蓄电池</t>
   </si>
 </sst>
 </file>
@@ -1935,9 +1942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29:H34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2029,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I2" s="23" t="s">
         <v>185</v>
@@ -2076,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>20</v>
@@ -2120,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>23</v>
@@ -2164,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>26</v>
@@ -2208,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>28</v>
@@ -2252,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>30</v>
@@ -2296,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>32</v>
@@ -2340,7 +2347,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>34</v>
@@ -2384,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>36</v>
@@ -2428,7 +2435,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>40</v>
@@ -2472,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>42</v>
@@ -2516,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>44</v>
@@ -2560,7 +2567,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>46</v>
@@ -2604,7 +2611,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>49</v>
@@ -2648,7 +2655,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>51</v>
@@ -2692,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>54</v>
@@ -2736,7 +2743,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>58</v>
@@ -2780,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>61</v>
@@ -2824,7 +2831,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>63</v>
@@ -2868,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>67</v>
@@ -2930,7 +2937,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>71</v>
@@ -2970,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>75</v>
@@ -3010,7 +3017,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>77</v>
@@ -3050,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>79</v>
@@ -3090,7 +3097,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>81</v>
@@ -3130,7 +3137,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>83</v>
@@ -3170,7 +3177,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="65" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>84</v>
@@ -3210,7 +3217,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>88</v>
@@ -3250,7 +3257,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>90</v>
@@ -3290,7 +3297,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>92</v>
@@ -3330,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="65" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>94</v>
@@ -3370,7 +3377,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>98</v>
@@ -3410,7 +3417,7 @@
         <v>34</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>99</v>
@@ -3450,7 +3457,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>102</v>
@@ -3490,7 +3497,7 @@
         <v>36</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>104</v>
@@ -3530,7 +3537,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>106</v>
@@ -3570,7 +3577,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>108</v>
@@ -3610,7 +3617,7 @@
         <v>39</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>112</v>
@@ -3648,7 +3655,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>113</v>
@@ -3688,7 +3695,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>116</v>
@@ -3728,7 +3735,7 @@
         <v>42</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>118</v>
@@ -3768,7 +3775,7 @@
         <v>43</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>119</v>
@@ -3808,7 +3815,7 @@
         <v>44</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>122</v>
@@ -3848,7 +3855,7 @@
         <v>45</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>125</v>
@@ -3888,7 +3895,7 @@
         <v>46</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>126</v>
@@ -3928,7 +3935,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>127</v>
@@ -4235,9 +4242,7 @@
       <c r="G59" s="47">
         <v>58</v>
       </c>
-      <c r="H59" s="69" t="s">
-        <v>298</v>
-      </c>
+      <c r="H59" s="69"/>
       <c r="K59" s="12"/>
       <c r="L59" s="18"/>
       <c r="M59" s="19"/>
@@ -5060,7 +5065,7 @@
     </row>
     <row r="88" spans="1:15" ht="148.5" x14ac:dyDescent="0.15">
       <c r="H88" s="72" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5079,1912 +5084,2066 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB3DD0F-9581-4E4F-BD1A-44803BB28F98}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="37" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="37" customWidth="1"/>
-    <col min="13" max="13" width="16.25" style="37" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="37" customWidth="1"/>
-    <col min="15" max="15" width="18.75" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="37" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38" style="37" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="9" style="37"/>
+    <col min="2" max="2" width="43.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="37" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="37" customWidth="1"/>
+    <col min="16" max="16" width="18.75" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="36" customFormat="1" ht="60.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:21" s="36" customFormat="1" ht="60.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>294</v>
-      </c>
       <c r="J1" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="O1" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="T1" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="E2" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E2" s="40"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="38"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="E3" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E3" s="40"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" s="23" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="38"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="38"/>
+      <c r="U3" s="38" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="C4" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="D4" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="E4" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="40"/>
       <c r="F4" s="40"/>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="I4" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J4" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="L4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="M4" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="N4" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="O4" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O4" s="38"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
+      <c r="U4" s="38"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C5" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="E5" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E5" s="40"/>
       <c r="F5" s="40"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="I5" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J5" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="L5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="M5" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="N5" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="O5" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="U5" s="38"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="C6" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="E6" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E6" s="40"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="I6" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I6" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J6" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="L6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="M6" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="N6" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="O6" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="U6" s="38"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="C7" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="E7" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="40"/>
       <c r="F7" s="40"/>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="I7" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I7" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J7" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K7" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="L7" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="M7" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="N7" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="O7" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O7" s="38"/>
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="U7" s="38"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="C8" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="D8" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="E8" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="40"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="I8" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J8" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="L8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="M8" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="N8" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="O8" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O8" s="38"/>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
+      <c r="U8" s="38"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="E9" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E9" s="40"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="I9" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J9" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K9" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="L9" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="M9" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="N9" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="O9" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O9" s="38"/>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="40" t="s">
+      <c r="U9" s="38"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="C10" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="D10" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="E10" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E10" s="40"/>
       <c r="F10" s="40"/>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="I10" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I10" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J10" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="L10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="M10" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="N10" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="O10" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O10" s="38"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="40" t="s">
+      <c r="U10" s="38"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="C11" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="E11" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="40"/>
       <c r="F11" s="40"/>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="I11" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I11" s="40" t="s">
-        <v>295</v>
-      </c>
       <c r="J11" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="L11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="M11" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="N11" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="N11" s="62" t="s">
+      <c r="O11" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="O11" s="38"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="40" t="s">
+      <c r="U11" s="38"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="C12" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="E12" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="38"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="62"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="s">
+      <c r="U12" s="38"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C13" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="E13" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="38"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="62"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="40" t="s">
+      <c r="U13" s="38"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="C14" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="D14" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="E14" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="62"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="40" t="s">
+      <c r="U14" s="38"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="C15" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="D15" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="E15" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="38"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="62"/>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
+      <c r="U15" s="38"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="37" t="s">
+        <v>303</v>
+      </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="62"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="38" t="s">
+      <c r="U16" s="38"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="38"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="62"/>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="38" t="s">
+      <c r="U17" s="38"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="38"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="62"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
+      <c r="U18" s="38"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="37" t="s">
+        <v>303</v>
+      </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="62"/>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
+      <c r="U19" s="38"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="37" t="s">
+        <v>303</v>
+      </c>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
+      <c r="U20" s="38"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="37" t="s">
+        <v>303</v>
+      </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
+      <c r="U21" s="38"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="38"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="38"/>
+      <c r="E22" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="F22" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="G22" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="H22" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H22" s="51" t="s">
+      <c r="I22" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I22" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J22" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K22" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="L22" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="42"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
-      <c r="T22" s="38" t="s">
+      <c r="T22" s="38"/>
+      <c r="U22" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="38"/>
       <c r="C23" s="38"/>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="F23" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="G23" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="H23" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="I23" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I23" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J23" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K23" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="L23" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
-      <c r="T23" s="38" t="s">
+      <c r="T23" s="38"/>
+      <c r="U23" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="38"/>
       <c r="C24" s="38"/>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="F24" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="G24" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="H24" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="I24" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I24" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J24" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K24" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="L24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="44"/>
       <c r="M24" s="44"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="38"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="45"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+      <c r="U24" s="38"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="38"/>
       <c r="C25" s="38"/>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="F25" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="G25" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="H25" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="I25" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I25" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J25" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K25" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="L25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="44"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="63"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="38"/>
+      <c r="Q25" s="43"/>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A26" s="22" t="s">
+      <c r="U25" s="38"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="38"/>
       <c r="C26" s="38"/>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="F26" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="G26" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="H26" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="I26" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I26" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J26" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="L26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="62" t="s">
+      <c r="N26" s="38"/>
+      <c r="O26" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="P26" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="P26" s="38" t="s">
+      <c r="Q26" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
-      <c r="T26" s="38" t="s">
+      <c r="T26" s="38"/>
+      <c r="U26" s="38" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="38"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="F27" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="G27" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="38"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="62"/>
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="38"/>
+      <c r="U27" s="38"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="22"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="38"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="62"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A29" s="22" t="s">
+      <c r="U28" s="38"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="38"/>
       <c r="C29" s="38"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="43"/>
+      <c r="H29" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H29" s="51" t="s">
+      <c r="I29" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I29" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J29" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K29" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="L29" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="38"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="62" t="s">
+      <c r="N29" s="38"/>
+      <c r="O29" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="O29" s="38" t="s">
+      <c r="P29" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="P29" s="38" t="s">
+      <c r="Q29" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
-      <c r="T29" s="38" t="s">
+      <c r="T29" s="38"/>
+      <c r="U29" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="38"/>
       <c r="C30" s="38"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="43" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="38" t="s">
-        <v>296</v>
-      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K30" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="62"/>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
-      <c r="T30" s="38" t="s">
+      <c r="T30" s="38"/>
+      <c r="U30" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="38"/>
       <c r="C31" s="38"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="43" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="43"/>
+      <c r="H31" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="I31" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I31" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J31" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="L31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="38"/>
       <c r="M31" s="38"/>
-      <c r="N31" s="62" t="s">
+      <c r="N31" s="38"/>
+      <c r="O31" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="P31" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="Q31" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
-      <c r="T31" s="38" t="s">
+      <c r="T31" s="38"/>
+      <c r="U31" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="38"/>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="38"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="43"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="38"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="51"/>
       <c r="J32" s="38"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="62"/>
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="22" t="s">
+      <c r="U32" s="38"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="38"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="43"/>
+      <c r="H33" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="I33" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I33" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J33" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="L33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="62" t="s">
+      <c r="N33" s="38"/>
+      <c r="O33" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="O33" s="38" t="s">
+      <c r="P33" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="P33" s="38" t="s">
+      <c r="Q33" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
-      <c r="T33" s="38" t="s">
+      <c r="T33" s="38"/>
+      <c r="U33" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="38"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="38" t="s">
-        <v>296</v>
-      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="51"/>
       <c r="J34" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="62"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="38" t="s">
+      <c r="T34" s="38"/>
+      <c r="U34" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="38"/>
       <c r="C35" s="38"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="38"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="43"/>
+      <c r="H35" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="I35" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I35" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J35" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K35" s="22" t="s">
+      <c r="L35" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="62" t="s">
+      <c r="N35" s="38"/>
+      <c r="O35" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="O35" s="38" t="s">
+      <c r="P35" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="P35" s="38" t="s">
+      <c r="Q35" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="38" t="s">
+      <c r="T35" s="38"/>
+      <c r="U35" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="38"/>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="22"/>
       <c r="C36" s="38"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="43"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="38"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="51"/>
       <c r="J36" s="38"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="62"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
+      <c r="U36" s="38"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="38"/>
       <c r="C37" s="38"/>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="F37" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="G37" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="H37" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H37" s="51" t="s">
+      <c r="I37" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I37" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J37" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="L37" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L37" s="38"/>
       <c r="M37" s="38"/>
-      <c r="N37" s="62" t="s">
+      <c r="N37" s="38"/>
+      <c r="O37" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="O37" s="38" t="s">
+      <c r="P37" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="P37" s="38" t="s">
+      <c r="Q37" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
-      <c r="T37" s="38" t="s">
+      <c r="T37" s="38"/>
+      <c r="U37" s="38" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="38"/>
       <c r="C38" s="38"/>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="38"/>
+      <c r="E38" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="F38" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="G38" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="H38" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H38" s="51" t="s">
+      <c r="I38" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I38" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J38" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="L38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L38" s="38"/>
       <c r="M38" s="38"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="43" t="s">
+      <c r="N38" s="38"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="43"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
-      <c r="T38" s="38" t="s">
+      <c r="T38" s="38"/>
+      <c r="U38" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="38"/>
       <c r="C39" s="38"/>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="F39" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="G39" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="H39" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="I39" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I39" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J39" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="L39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="L39" s="38"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="43" t="s">
+      <c r="N39" s="38"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="43"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
-      <c r="T39" s="38" t="s">
+      <c r="T39" s="38"/>
+      <c r="U39" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="38"/>
       <c r="C40" s="38"/>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="38"/>
+      <c r="E40" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="51"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="62"/>
       <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
       <c r="T40" s="38"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="22" t="s">
+      <c r="U40" s="38"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A41" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="38"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="38"/>
+      <c r="E41" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="F41" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="G41" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="H41" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="I41" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I41" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J41" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="L41" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="L41" s="43">
+      <c r="M41" s="43">
         <v>2</v>
-      </c>
-      <c r="M41" s="43" t="s">
-        <v>284</v>
       </c>
       <c r="N41" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="O41" s="38"/>
+      <c r="O41" s="43" t="s">
+        <v>284</v>
+      </c>
       <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
-      <c r="T41" s="38" t="s">
+      <c r="T41" s="38"/>
+      <c r="U41" s="38" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A42" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="38"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="62" t="s">
+      <c r="D42" s="38"/>
+      <c r="E42" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="F42" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="G42" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="H42" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="I42" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I42" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J42" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="L42" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="M42" s="38" t="s">
         <v>276</v>
-      </c>
-      <c r="M42" s="43" t="s">
-        <v>284</v>
       </c>
       <c r="N42" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="O42" s="38"/>
+      <c r="O42" s="43" t="s">
+        <v>284</v>
+      </c>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
-      <c r="T42" s="38" t="s">
+      <c r="T42" s="38"/>
+      <c r="U42" s="38" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="38"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="62" t="s">
+      <c r="D43" s="38"/>
+      <c r="E43" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="F43" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="G43" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="H43" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="I43" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I43" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J43" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K43" s="38" t="s">
+      <c r="L43" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="L43" s="38"/>
       <c r="M43" s="38"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="62"/>
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="22" t="s">
+      <c r="U43" s="38"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="38"/>
       <c r="C44" s="38"/>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="38"/>
+      <c r="E44" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="F44" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="G44" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="H44" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="I44" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I44" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J44" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K44" s="38" t="s">
+      <c r="L44" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="L44" s="38"/>
       <c r="M44" s="38"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="62"/>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="s">
+      <c r="U44" s="38"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="38"/>
       <c r="C45" s="38"/>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="F45" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="G45" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="G45" s="40" t="s">
+      <c r="H45" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="I45" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="I45" s="38" t="s">
-        <v>296</v>
-      </c>
       <c r="J45" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K45" s="38" t="s">
+      <c r="L45" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="L45" s="38"/>
       <c r="M45" s="38"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="62"/>
       <c r="P45" s="38"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
       <c r="T45" s="38"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="22" t="s">
+      <c r="U45" s="38"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="38"/>
       <c r="C46" s="38"/>
-      <c r="D46" s="62" t="s">
+      <c r="D46" s="38"/>
+      <c r="E46" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="F46" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="G46" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="51"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="62"/>
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
       <c r="T46" s="38"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="22" t="s">
+      <c r="U46" s="38"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="38"/>
       <c r="C47" s="38"/>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="38"/>
+      <c r="E47" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="F47" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="51"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="62"/>
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
       <c r="T47" s="38"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A48" s="22" t="s">
+      <c r="U47" s="38"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="38"/>
       <c r="C48" s="38"/>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="38"/>
+      <c r="E48" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E48" s="38" t="s">
+      <c r="F48" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="F48" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="51"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="62"/>
       <c r="P48" s="38"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
       <c r="T48" s="38"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A49" s="22" t="s">
+      <c r="U48" s="38"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="38"/>
       <c r="C49" s="38"/>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="F49" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="G49" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="51"/>
       <c r="J49" s="38"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="62"/>
       <c r="P49" s="38"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
       <c r="T49" s="38"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A50" s="22" t="s">
+      <c r="U49" s="38"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="38"/>
       <c r="C50" s="38"/>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="38"/>
+      <c r="E50" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="F50" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="38" t="s">
+      <c r="G50" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="62"/>
       <c r="P50" s="38"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="38"/>
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A51" s="22" t="s">
+      <c r="U50" s="38"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="38"/>
       <c r="C51" s="38"/>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="F51" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="G51" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="51"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="62"/>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="38"/>
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
